--- a/src/main/resources/Book1.xlsx
+++ b/src/main/resources/Book1.xlsx
@@ -2,18 +2,19 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ankitsharma/Desktop/JAVA_Testing/PetStore/src/main/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D897916-AE76-2648-822A-31139D95F215}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A222A9EC-C73F-324D-8B59-C1F820D6D6EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16180" xr2:uid="{C8D89BED-BED0-024D-9571-8C16BCC70A9C}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16100" xr2:uid="{C8D89BED-BED0-024D-9571-8C16BCC70A9C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
   <si>
     <t>TC-ID</t>
   </si>
@@ -44,65 +45,68 @@
     <t>Execution</t>
   </si>
   <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>photoUrls</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>Tname</t>
+  </si>
+  <si>
+    <t>Ankit</t>
+  </si>
+  <si>
+    <t>https://www.shutterstock.com/image-photo/close-portrait-angry-tiger-600nw-2320794599.jpg</t>
+  </si>
+  <si>
+    <t>"new pet aviable"</t>
+  </si>
+  <si>
+    <t>aviavble</t>
+  </si>
+  <si>
+    <t>Rahul</t>
+  </si>
+  <si>
+    <t>not-aviavble</t>
+  </si>
+  <si>
+    <t>"not found"</t>
+  </si>
+  <si>
+    <t>cname</t>
+  </si>
+  <si>
+    <t>Human</t>
+  </si>
+  <si>
+    <t>Dog</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
     <t>Status</t>
   </si>
   <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>photoUrls</t>
-  </si>
-  <si>
-    <t>status</t>
-  </si>
-  <si>
-    <t>Tname</t>
-  </si>
-  <si>
-    <t>Ankit</t>
-  </si>
-  <si>
-    <t>https://www.shutterstock.com/image-photo/close-portrait-angry-tiger-600nw-2320794599.jpg</t>
-  </si>
-  <si>
-    <t>"new pet aviable"</t>
-  </si>
-  <si>
-    <t>aviavble</t>
-  </si>
-  <si>
-    <t>Rahul</t>
-  </si>
-  <si>
-    <t>not-aviavble</t>
-  </si>
-  <si>
-    <t>"not found"</t>
-  </si>
-  <si>
-    <t>succes</t>
-  </si>
-  <si>
-    <t>cname</t>
-  </si>
-  <si>
-    <t>Human</t>
-  </si>
-  <si>
-    <t>Dog</t>
+    <t>aviable</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -117,6 +121,12 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9.8000000000000007"/>
+      <color rgb="FFBCBEC4"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -140,7 +150,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -151,6 +161,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -489,10 +500,10 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="2" width="10.83203125" style="1"/>
     <col min="3" max="3" width="20" customWidth="1"/>
@@ -500,7 +511,7 @@
     <col min="7" max="7" width="18.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="17">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -508,83 +519,83 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="H1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1" t="s">
-        <v>2</v>
+      <c r="I1" s="4" t="s">
+        <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="170" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" ht="170">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" t="s">
         <v>10</v>
       </c>
-      <c r="G2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>11</v>
-      </c>
       <c r="I2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="170" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" ht="170">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>14</v>
       </c>
-      <c r="H3" t="s">
-        <v>15</v>
-      </c>
       <c r="I3" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -594,4 +605,16 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3548D031-6D34-C745-9A5A-573583B045B8}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView topLeftCell="A14" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>